--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="85">
   <si>
     <t>STT</t>
   </si>
@@ -256,6 +256,42 @@
   </si>
   <si>
     <t>013226008699262</t>
+  </si>
+  <si>
+    <t>LE.2.00.---28.200624</t>
+  </si>
+  <si>
+    <t>123.031.030.077,09207</t>
+  </si>
+  <si>
+    <t>Lock: 123.031.030.077,09207</t>
+  </si>
+  <si>
+    <t>Lỗi khay sim</t>
+  </si>
+  <si>
+    <t>Thay khay sim</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Chập nguồn</t>
+  </si>
+  <si>
+    <t>Thay tụ lọc nguồn</t>
+  </si>
+  <si>
+    <t>LE.1.00.---01.180710</t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.024,09107</t>
+  </si>
+  <si>
+    <t>LE.1.00.---06.191010</t>
+  </si>
+  <si>
+    <t>Thay diode quá áp</t>
   </si>
 </sst>
 </file>
@@ -764,6 +800,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,34 +845,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1122,8 +1158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1154,43 +1190,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -1235,58 +1271,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1311,24 +1347,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1362,7 +1398,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1388,20 +1424,36 @@
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="54"/>
+      <c r="M7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="54">
+        <v>35000</v>
+      </c>
       <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="50"/>
+      <c r="P7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1438,7 +1490,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1527,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1499,20 +1551,34 @@
         <v>67</v>
       </c>
       <c r="H10" s="66"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="55"/>
+      <c r="I10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>83</v>
+      </c>
       <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="52" t="s">
+        <v>84</v>
+      </c>
       <c r="N10" s="54"/>
       <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="50"/>
+      <c r="P10" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1536,20 +1602,34 @@
         <v>66</v>
       </c>
       <c r="H11" s="66"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
+      <c r="I11" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="M11" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="N11" s="54"/>
       <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
+      <c r="P11" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1586,7 +1666,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1617,7 +1697,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1646,7 +1726,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1675,7 +1755,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1704,7 +1784,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1855,7 +1935,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2132,7 +2212,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2164,7 +2244,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2356,7 +2436,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2938,10 +3018,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2970,8 +3050,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -2997,8 +3077,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4285,6 +4365,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4295,16 +4385,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4315,7 +4395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -4347,43 +4427,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -4428,58 +4508,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4504,24 +4584,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4555,7 +4635,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4594,7 +4674,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4631,7 +4711,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4668,7 +4748,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4705,7 +4785,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4734,7 +4814,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4763,7 +4843,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4794,7 +4874,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4823,7 +4903,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4852,7 +4932,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4881,7 +4961,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6115,10 +6195,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6147,8 +6227,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6174,8 +6254,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7462,6 +7542,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7472,16 +7562,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7524,43 +7604,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -7605,58 +7685,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7681,24 +7761,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7734,7 +7814,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7773,7 +7853,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7802,7 +7882,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7831,7 +7911,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7860,7 +7940,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7889,7 +7969,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7918,7 +7998,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -7949,7 +8029,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -7978,7 +8058,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8007,7 +8087,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8036,7 +8116,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9270,10 +9350,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9302,8 +9382,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9329,8 +9409,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10617,6 +10697,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10627,16 +10717,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10679,43 +10759,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -10760,58 +10840,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -10836,24 +10916,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -10879,7 +10959,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -10910,7 +10990,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10939,7 +11019,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10968,7 +11048,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -10997,7 +11077,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11026,7 +11106,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11055,7 +11135,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11086,7 +11166,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11115,7 +11195,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11144,7 +11224,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11173,7 +11253,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12407,10 +12487,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12439,8 +12519,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12466,8 +12546,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -13754,6 +13834,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13764,16 +13854,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="111">
   <si>
     <t>STT</t>
   </si>
@@ -292,6 +292,84 @@
   </si>
   <si>
     <t>Thay diode quá áp</t>
+  </si>
+  <si>
+    <t>Chập nổ nguồn 4v4, 3v3</t>
+  </si>
+  <si>
+    <t>Sai baurate GPS</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09207</t>
+  </si>
+  <si>
+    <t>Imei mới: 868183034801071</t>
+  </si>
+  <si>
+    <t>203.162.121.024,09207</t>
+  </si>
+  <si>
+    <t>Imei mới:  868183034583729</t>
+  </si>
+  <si>
+    <t>Bung chân connector nguồn</t>
+  </si>
+  <si>
+    <t>Hàn lại connector</t>
+  </si>
+  <si>
+    <t>123.31.30.077,09207</t>
+  </si>
+  <si>
+    <t>X.3.0.0.00041.250815</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị có dấu hiệu oxi hóa</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại mạch</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00002.180125</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4,3v3,MCU,Module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>PC+PM</t>
+  </si>
+  <si>
+    <t>NG,MCU,GSM,NCFW</t>
+  </si>
+  <si>
+    <t>Thay IC nguồn 4v4, 3v3, MCU, Module GSM/GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,MCU,GSM, NCFW</t>
+  </si>
+  <si>
+    <t>Cấu hình lại baurate GPS,NCFW</t>
+  </si>
+  <si>
+    <t>MCH,NCFW</t>
+  </si>
+  <si>
+    <t>X.4.0.0.00001.221117</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09008</t>
+  </si>
+  <si>
+    <t>Thiết bị cập nhật sai thời gian</t>
+  </si>
+  <si>
+    <t>Thay module GPS</t>
+  </si>
+  <si>
+    <t>RTC</t>
   </si>
 </sst>
 </file>
@@ -800,30 +878,6 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -845,10 +899,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1158,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1190,43 +1268,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -1271,58 +1349,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="97" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1347,24 +1425,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1384,21 +1462,39 @@
       <c r="G6" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="66"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="52"/>
+      <c r="H6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>99</v>
+      </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="P6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>101</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1453,7 +1549,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="90"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1476,21 +1572,39 @@
       <c r="G8" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="H8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>102</v>
+      </c>
       <c r="N8" s="54"/>
       <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="50"/>
+      <c r="P8" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>103</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="90"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1514,20 +1628,36 @@
         <v>67</v>
       </c>
       <c r="H9" s="50"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="I9" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>104</v>
+      </c>
       <c r="N9" s="54"/>
       <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="P9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>105</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="90"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1578,7 +1708,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="90"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1629,7 +1759,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1653,20 +1783,34 @@
         <v>67</v>
       </c>
       <c r="H12" s="66"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
+      <c r="I12" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>83</v>
+      </c>
       <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="M12" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="N12" s="54"/>
       <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
+      <c r="P12" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1697,7 +1841,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="90"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1726,7 +1870,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="90"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1755,7 +1899,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="90"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1784,7 +1928,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1903,7 +2047,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1935,7 +2079,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1967,7 +2111,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2084,7 +2228,7 @@
       </c>
       <c r="W26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2116,7 +2260,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2212,7 +2356,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2276,7 +2420,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2372,7 +2516,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -2436,7 +2580,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3018,10 +3162,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="92">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3050,8 +3194,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3077,8 +3221,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4365,6 +4509,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4375,16 +4529,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4427,43 +4571,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -4508,58 +4652,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="97" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4584,24 +4728,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4635,7 +4779,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4674,7 +4818,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="90"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4711,7 +4855,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="90"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4748,7 +4892,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="90"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4785,7 +4929,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="90"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4814,7 +4958,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4843,7 +4987,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -4874,7 +5018,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="90"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4903,7 +5047,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="90"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4932,7 +5076,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="90"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4961,7 +5105,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6195,10 +6339,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="92">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6227,8 +6371,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6254,8 +6398,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7542,6 +7686,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7552,16 +7706,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7572,8 +7716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7604,43 +7748,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -7685,58 +7829,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="97" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7761,24 +7905,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7801,20 +7945,36 @@
         <v>66</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="52"/>
+      <c r="I6" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="P6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -7840,20 +8000,36 @@
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="52"/>
+      <c r="M7" s="52" t="s">
+        <v>109</v>
+      </c>
       <c r="N7" s="54"/>
       <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="3"/>
+      <c r="P7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="90"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -7882,7 +8058,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="90"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -7911,7 +8087,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="90"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -7940,7 +8116,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="90"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -7969,7 +8145,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -7998,7 +8174,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8029,7 +8205,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="90"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8058,7 +8234,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="90"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8087,7 +8263,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="90"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8116,7 +8292,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8235,7 +8411,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8267,7 +8443,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8480,7 +8656,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8704,7 +8880,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8768,7 +8944,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9350,10 +9526,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="92">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9382,8 +9558,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9409,8 +9585,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10697,6 +10873,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10707,16 +10893,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10759,43 +10935,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="99"/>
+      <c r="U1" s="99"/>
+      <c r="V1" s="99"/>
+      <c r="W1" s="99"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="102"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -10840,58 +11016,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="97" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="96" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -10916,24 +11092,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="95"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="96"/>
+      <c r="W5" s="96"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -10959,7 +11135,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -10990,7 +11166,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="90"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11019,7 +11195,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="90"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11048,7 +11224,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="90"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11077,7 +11253,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="90"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11106,7 +11282,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="90"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11135,7 +11311,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11166,7 +11342,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="90"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11195,7 +11371,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="90"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11224,7 +11400,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="90"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11253,7 +11429,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="91"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12487,10 +12663,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="92">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12519,8 +12695,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="93"/>
+      <c r="W57" s="93"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12546,8 +12722,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="94"/>
+      <c r="W58" s="94"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -13834,6 +14010,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13844,16 +14030,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="124">
   <si>
     <t>STT</t>
   </si>
@@ -370,6 +370,45 @@
   </si>
   <si>
     <t>RTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---16.051017 </t>
+  </si>
+  <si>
+    <t>Lỗi Flash</t>
+  </si>
+  <si>
+    <t>Thay Flash</t>
+  </si>
+  <si>
+    <t>203.162.121.025,09007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG.007.---15.310517 </t>
+  </si>
+  <si>
+    <t>Lock: 203.162.121.068,09007</t>
+  </si>
+  <si>
+    <t>Chập nổ nguồn</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode quá áp</t>
+  </si>
+  <si>
+    <t>Nguồn chập chờn</t>
+  </si>
+  <si>
+    <t>Xử lý phần cứng</t>
+  </si>
+  <si>
+    <t>Thiết bị không chốt GPS</t>
+  </si>
+  <si>
+    <t>203.162.121.026,09007</t>
+  </si>
+  <si>
+    <t>Thay module GSM</t>
   </si>
 </sst>
 </file>
@@ -878,6 +917,30 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -899,34 +962,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1236,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1268,43 +1307,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -1349,58 +1388,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1425,24 +1464,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1494,7 +1533,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1549,7 +1588,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1643,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1696,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1708,7 +1747,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1798,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1810,7 +1849,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1841,7 +1880,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1870,7 +1909,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1899,7 +1938,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1928,7 +1967,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3162,10 +3201,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3194,8 +3233,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3221,8 +3260,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4509,6 +4548,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4519,16 +4568,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4539,8 +4578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4571,43 +4610,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -4652,58 +4691,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+    <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4728,24 +4767,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4766,20 +4805,36 @@
         <v>66</v>
       </c>
       <c r="H6" s="66"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
+      <c r="I6" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>115</v>
+      </c>
       <c r="L6" s="55"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="54"/>
+      <c r="M6" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="N6" s="54">
+        <v>20000</v>
+      </c>
       <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="P6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4805,20 +4860,36 @@
         <v>66</v>
       </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
+      <c r="I7" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="L7" s="55"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="54"/>
+      <c r="M7" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="N7" s="54">
+        <v>310000</v>
+      </c>
       <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="50"/>
+      <c r="P7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>21</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4842,20 +4913,36 @@
         <v>66</v>
       </c>
       <c r="H8" s="50"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
+      <c r="I8" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>111</v>
+      </c>
       <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="54"/>
+      <c r="M8" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="N8" s="54">
+        <v>360000</v>
+      </c>
       <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="50"/>
+      <c r="P8" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4880,19 +4967,33 @@
       </c>
       <c r="H9" s="50"/>
       <c r="I9" s="61"/>
-      <c r="J9" s="52"/>
+      <c r="J9" s="52" t="s">
+        <v>112</v>
+      </c>
       <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="54"/>
+      <c r="L9" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="N9" s="54">
+        <v>120000</v>
+      </c>
       <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="P9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4916,20 +5017,34 @@
         <v>66</v>
       </c>
       <c r="H10" s="66"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="55"/>
+      <c r="I10" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>111</v>
+      </c>
       <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
+      <c r="M10" s="52" t="s">
+        <v>120</v>
+      </c>
       <c r="N10" s="54"/>
       <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="50"/>
+      <c r="P10" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4958,7 +5073,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4987,7 +5102,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5018,7 +5133,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5047,7 +5162,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5076,7 +5191,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5105,7 +5220,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5256,7 +5371,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5437,7 +5552,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5469,7 +5584,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5533,7 +5648,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5680,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5757,7 +5872,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6339,10 +6454,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6371,8 +6486,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6398,8 +6513,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7686,6 +7801,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7696,16 +7821,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7717,7 +7832,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J18" activeCellId="1" sqref="D7:E7 J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7748,43 +7863,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -7829,58 +7944,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -7905,24 +8020,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -7974,7 +8089,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8013,7 +8128,9 @@
       <c r="M7" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="N7" s="54"/>
+      <c r="N7" s="54">
+        <v>100000</v>
+      </c>
       <c r="O7" s="52"/>
       <c r="P7" s="52" t="s">
         <v>78</v>
@@ -8029,7 +8146,7 @@
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8058,7 +8175,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8087,7 +8204,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8116,7 +8233,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8145,7 +8262,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8174,7 +8291,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8205,7 +8322,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8234,7 +8351,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8263,7 +8380,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8292,7 +8409,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9526,10 +9643,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9558,8 +9675,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9585,8 +9702,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -10873,6 +10990,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10883,16 +11010,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10935,43 +11052,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="102" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11016,58 +11133,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="104" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="104" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="95" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="97" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="96" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="103"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11092,24 +11209,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="95"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="96"/>
-      <c r="W5" s="96"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11135,7 +11252,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="89" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11166,7 +11283,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="90"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11195,7 +11312,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="90"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11224,7 +11341,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="90"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11253,7 +11370,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="90"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11282,7 +11399,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="90"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11311,7 +11428,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="89" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11342,7 +11459,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="90"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11371,7 +11488,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="90"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11400,7 +11517,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="90"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11429,7 +11546,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="91"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12663,10 +12780,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="92" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="92">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12695,8 +12812,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="93"/>
-      <c r="W57" s="93"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12722,8 +12839,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="94"/>
-      <c r="W58" s="94"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14010,6 +14127,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14020,16 +14147,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Thiết bị có dấu hiệu oxi hóa</t>
   </si>
   <si>
-    <t>Vệ sinh lại mạch</t>
-  </si>
-  <si>
     <t>X.4.0.0.00002.180125</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Thiết bị cập nhật sai thời gian</t>
   </si>
   <si>
-    <t>Thay module GPS</t>
-  </si>
-  <si>
     <t>RTC</t>
   </si>
   <si>
@@ -376,9 +370,6 @@
   </si>
   <si>
     <t>Lỗi Flash</t>
-  </si>
-  <si>
-    <t>Thay Flash</t>
   </si>
   <si>
     <t>203.162.121.025,09007</t>
@@ -391,9 +382,6 @@
   </si>
   <si>
     <t>Chập nổ nguồn</t>
-  </si>
-  <si>
-    <t>Thay cầu chì, diode quá áp</t>
   </si>
   <si>
     <t>Nguồn chập chờn</t>
@@ -409,6 +397,45 @@
   </si>
   <si>
     <t>Thay module GSM</t>
+  </si>
+  <si>
+    <t>Thay module GPS(BG khách không sửa)</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>NG,NCFW</t>
+  </si>
+  <si>
+    <t>Imei mới: 864161025113387</t>
+  </si>
+  <si>
+    <t>Thay Flash, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>LK,NCFW</t>
+  </si>
+  <si>
+    <t>Vệ sinh lại mạch, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>Thay module GPS, nâng cấp FW</t>
+  </si>
+  <si>
+    <t>GPS,NCFW</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -525,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -651,7 +684,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -915,6 +948,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,7 +1330,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1307,43 +1361,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -1388,58 +1442,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1464,24 +1518,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1517,7 +1571,7 @@
         <v>73</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
@@ -1525,15 +1579,15 @@
         <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="50" t="s">
         <v>100</v>
-      </c>
-      <c r="R6" s="50" t="s">
-        <v>101</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1588,7 +1642,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1627,7 +1681,7 @@
         <v>73</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N8" s="54"/>
       <c r="O8" s="52"/>
@@ -1635,15 +1689,15 @@
         <v>78</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R8" s="50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1680,7 +1734,7 @@
         <v>73</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N9" s="54"/>
       <c r="O9" s="52"/>
@@ -1691,12 +1745,12 @@
         <v>19</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1708,7 +1762,9 @@
       <c r="B10" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="82" t="s">
+        <v>122</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>45</v>
       </c>
@@ -1729,12 +1785,16 @@
       <c r="K10" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L10" s="52"/>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M10" s="52" t="s">
         <v>84</v>
       </c>
       <c r="N10" s="54"/>
-      <c r="O10" s="52"/>
+      <c r="O10" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P10" s="52" t="s">
         <v>78</v>
       </c>
@@ -1747,7 +1807,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1759,7 +1819,9 @@
       <c r="B11" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="82"/>
+      <c r="C11" s="82" t="s">
+        <v>122</v>
+      </c>
       <c r="D11" s="50" t="s">
         <v>45</v>
       </c>
@@ -1780,12 +1842,16 @@
       <c r="K11" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="L11" s="52"/>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M11" s="52" t="s">
         <v>80</v>
       </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
+      <c r="O11" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P11" s="52" t="s">
         <v>78</v>
       </c>
@@ -1798,7 +1864,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1831,7 +1897,9 @@
       <c r="K12" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="L12" s="52"/>
+      <c r="L12" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="M12" s="52" t="s">
         <v>92</v>
       </c>
@@ -1849,7 +1917,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1880,7 +1948,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1909,7 +1977,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1938,7 +2006,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1967,7 +2035,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2071,7 +2139,9 @@
       <c r="I20" s="73"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="M20" s="10"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -3201,10 +3271,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3233,8 +3303,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3260,8 +3330,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4578,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4610,43 +4680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -4691,58 +4761,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4767,24 +4837,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4806,17 +4876,19 @@
       </c>
       <c r="H6" s="66"/>
       <c r="I6" s="61" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K6" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="L6" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="L6" s="55" t="s">
+        <v>109</v>
+      </c>
       <c r="M6" s="52" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="N6" s="54">
         <v>20000</v>
@@ -4826,15 +4898,15 @@
         <v>78</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4842,54 +4914,54 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="89">
         <v>2</v>
       </c>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="92">
         <v>861693037597069</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="F7" s="91"/>
+      <c r="G7" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="61" t="s">
-        <v>114</v>
-      </c>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>117</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="94"/>
+      <c r="O7" s="91" t="s">
         <v>121</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="55"/>
-      <c r="M7" s="52" t="s">
-        <v>109</v>
-      </c>
-      <c r="N7" s="54">
-        <v>310000</v>
-      </c>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52" t="s">
+      <c r="P7" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="89"/>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4912,19 +4984,21 @@
       <c r="G8" s="50" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="50"/>
+      <c r="H8" s="50" t="s">
+        <v>127</v>
+      </c>
       <c r="I8" s="61" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J8" s="52" t="s">
         <v>34</v>
       </c>
       <c r="K8" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L8" s="52"/>
       <c r="M8" s="52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N8" s="54">
         <v>360000</v>
@@ -4942,7 +5016,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4968,14 +5042,14 @@
       <c r="H9" s="50"/>
       <c r="I9" s="61"/>
       <c r="J9" s="52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K9" s="55"/>
       <c r="L9" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="N9" s="54">
         <v>120000</v>
@@ -4985,15 +5059,15 @@
         <v>78</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>30</v>
+        <v>129</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -5018,17 +5092,17 @@
       </c>
       <c r="H10" s="66"/>
       <c r="I10" s="52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10" s="52"/>
       <c r="M10" s="52" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N10" s="54"/>
       <c r="O10" s="52"/>
@@ -5044,7 +5118,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5073,7 +5147,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5102,7 +5176,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5133,7 +5207,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5162,7 +5236,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5191,7 +5265,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5220,7 +5294,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5371,7 +5445,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,7 +5477,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5808,7 +5882,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5872,7 +5946,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5990,7 +6064,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6454,10 +6528,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6486,8 +6560,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6513,8 +6587,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -6631,7 +6705,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7832,7 +7906,7 @@
   <dimension ref="A1:W105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J18" activeCellId="1" sqref="D7:E7 J18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7863,43 +7937,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -7944,58 +8018,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8020,24 +8094,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8070,10 +8144,10 @@
         <v>94</v>
       </c>
       <c r="L6" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="N6" s="54"/>
       <c r="O6" s="52"/>
@@ -8089,7 +8163,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8116,17 +8190,19 @@
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="52" t="s">
-        <v>108</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="55"/>
+        <v>105</v>
+      </c>
+      <c r="L7" s="55" t="s">
+        <v>97</v>
+      </c>
       <c r="M7" s="52" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="N7" s="54">
         <v>100000</v>
@@ -8136,17 +8212,17 @@
         <v>78</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8175,7 +8251,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8204,7 +8280,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8233,7 +8309,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8262,7 +8338,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8291,7 +8367,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8322,7 +8398,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8351,7 +8427,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8380,7 +8456,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8409,7 +8485,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8560,7 +8636,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8592,7 +8668,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,7 +9073,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9061,7 +9137,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9643,10 +9719,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9675,8 +9751,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9702,8 +9778,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11052,43 +11128,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="89"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
+      <c r="V1" s="96"/>
+      <c r="W1" s="96"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="99"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11133,58 +11209,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
+      <c r="A4" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="94" t="s">
+      <c r="K4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="94"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="101"/>
+      <c r="M4" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="104" t="s">
+      <c r="S4" s="111" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="94" t="s">
+      <c r="V4" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="94" t="s">
+      <c r="W4" s="101" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11209,24 +11285,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="94"/>
+      <c r="J5" s="101"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="105"/>
+      <c r="M5" s="103"/>
+      <c r="N5" s="103"/>
+      <c r="O5" s="101"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="101"/>
+      <c r="R5" s="101"/>
+      <c r="S5" s="112"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="94"/>
-      <c r="W5" s="94"/>
+      <c r="V5" s="101"/>
+      <c r="W5" s="101"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11252,7 +11328,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="97" t="s">
+      <c r="V6" s="104" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11283,7 +11359,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="98"/>
+      <c r="V7" s="105"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11312,7 +11388,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="98"/>
+      <c r="V8" s="105"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11341,7 +11417,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="98"/>
+      <c r="V9" s="105"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11370,7 +11446,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="98"/>
+      <c r="V10" s="105"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11399,7 +11475,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="98"/>
+      <c r="V11" s="105"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11428,7 +11504,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="97" t="s">
+      <c r="V12" s="104" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11459,7 +11535,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="98"/>
+      <c r="V13" s="105"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11488,7 +11564,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="98"/>
+      <c r="V14" s="105"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11517,7 +11593,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="98"/>
+      <c r="V15" s="105"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11546,7 +11622,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="99"/>
+      <c r="V16" s="106"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12780,10 +12856,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="100" t="s">
+      <c r="V56" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="100">
+      <c r="W56" s="107">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12812,8 +12888,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="101"/>
-      <c r="W57" s="101"/>
+      <c r="V57" s="108"/>
+      <c r="W57" s="108"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12839,8 +12915,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="102"/>
-      <c r="W58" s="102"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -411,9 +411,6 @@
     <t>BT</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>Thay cầu chì, diode quá áp, nâng cấp FW</t>
   </si>
   <si>
@@ -436,6 +433,9 @@
   </si>
   <si>
     <t>GPS,NCFW</t>
+  </si>
+  <si>
+    <t>19/11/2020</t>
   </si>
 </sst>
 </file>
@@ -971,30 +971,6 @@
     <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1016,10 +992,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1329,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1361,43 +1361,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -1442,58 +1442,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="103" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1518,24 +1518,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1544,7 +1544,9 @@
       <c r="B6" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>45</v>
       </c>
@@ -1574,7 +1576,9 @@
         <v>98</v>
       </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
+      <c r="O6" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P6" s="52" t="s">
         <v>78</v>
       </c>
@@ -1587,7 +1591,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="104" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1601,7 +1605,9 @@
       <c r="B7" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>45</v>
       </c>
@@ -1629,7 +1635,9 @@
       <c r="N7" s="54">
         <v>35000</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P7" s="52" t="s">
         <v>78</v>
       </c>
@@ -1642,7 +1650,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1654,7 +1662,9 @@
       <c r="B8" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>45</v>
       </c>
@@ -1684,7 +1694,9 @@
         <v>101</v>
       </c>
       <c r="N8" s="54"/>
-      <c r="O8" s="52"/>
+      <c r="O8" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P8" s="52" t="s">
         <v>78</v>
       </c>
@@ -1697,7 +1709,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1709,7 +1721,9 @@
       <c r="B9" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>45</v>
       </c>
@@ -1737,7 +1751,9 @@
         <v>103</v>
       </c>
       <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
+      <c r="O9" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P9" s="52" t="s">
         <v>78</v>
       </c>
@@ -1750,7 +1766,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1807,7 +1823,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1864,7 +1880,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1876,7 +1892,9 @@
       <c r="B12" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="83"/>
+      <c r="C12" s="83" t="s">
+        <v>132</v>
+      </c>
       <c r="D12" s="50" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +1922,9 @@
         <v>92</v>
       </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
+      <c r="O12" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P12" s="52" t="s">
         <v>78</v>
       </c>
@@ -1917,7 +1937,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="104" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1948,7 +1968,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1977,7 +1997,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2006,7 +2026,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2035,7 +2055,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2139,9 +2159,7 @@
       <c r="I20" s="73"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>124</v>
-      </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="10"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
@@ -3271,10 +3289,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="107" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="107">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3303,8 +3321,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="108"/>
-      <c r="W57" s="108"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3330,8 +3348,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4618,6 +4636,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4628,16 +4656,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4648,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4680,43 +4698,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -4761,58 +4779,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="103" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4837,24 +4855,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4863,7 +4881,9 @@
       <c r="B6" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>49</v>
       </c>
@@ -4888,12 +4908,14 @@
         <v>109</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N6" s="54">
         <v>20000</v>
       </c>
-      <c r="O6" s="52"/>
+      <c r="O6" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P6" s="52" t="s">
         <v>78</v>
       </c>
@@ -4901,12 +4923,12 @@
         <v>99</v>
       </c>
       <c r="R6" s="50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="104" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -4920,7 +4942,9 @@
       <c r="B7" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="90"/>
+      <c r="C7" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D7" s="91" t="s">
         <v>49</v>
       </c>
@@ -4961,7 +4985,7 @@
       <c r="S7" s="89"/>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -4973,7 +4997,9 @@
       <c r="B8" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="82"/>
+      <c r="C8" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D8" s="50" t="s">
         <v>49</v>
       </c>
@@ -4985,7 +5011,7 @@
         <v>66</v>
       </c>
       <c r="H8" s="50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I8" s="61" t="s">
         <v>118</v>
@@ -5003,7 +5029,9 @@
       <c r="N8" s="54">
         <v>360000</v>
       </c>
-      <c r="O8" s="52"/>
+      <c r="O8" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P8" s="52" t="s">
         <v>78</v>
       </c>
@@ -5016,7 +5044,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5028,7 +5056,9 @@
       <c r="B9" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="82"/>
+      <c r="C9" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D9" s="50" t="s">
         <v>49</v>
       </c>
@@ -5049,12 +5079,14 @@
         <v>109</v>
       </c>
       <c r="M9" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N9" s="54">
         <v>120000</v>
       </c>
-      <c r="O9" s="52"/>
+      <c r="O9" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P9" s="52" t="s">
         <v>78</v>
       </c>
@@ -5062,12 +5094,12 @@
         <v>99</v>
       </c>
       <c r="R9" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -5079,7 +5111,9 @@
       <c r="B10" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D10" s="50" t="s">
         <v>49</v>
       </c>
@@ -5105,7 +5139,9 @@
         <v>116</v>
       </c>
       <c r="N10" s="54"/>
-      <c r="O10" s="52"/>
+      <c r="O10" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P10" s="52" t="s">
         <v>78</v>
       </c>
@@ -5118,7 +5154,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5147,7 +5183,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5176,7 +5212,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="104" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5207,7 +5243,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5236,7 +5272,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5265,7 +5301,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5294,7 +5330,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6528,10 +6564,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="107" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="107">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6560,8 +6596,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="108"/>
-      <c r="W57" s="108"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6587,8 +6623,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7875,6 +7911,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7885,16 +7931,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7905,8 +7941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7937,43 +7973,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -8018,58 +8054,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="103" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8094,24 +8130,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8120,7 +8156,9 @@
       <c r="B6" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="82"/>
+      <c r="C6" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D6" s="50" t="s">
         <v>51</v>
       </c>
@@ -8147,10 +8185,12 @@
         <v>97</v>
       </c>
       <c r="M6" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
+      <c r="O6" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P6" s="52" t="s">
         <v>78</v>
       </c>
@@ -8163,7 +8203,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="104" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8177,7 +8217,9 @@
       <c r="B7" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="82"/>
+      <c r="C7" s="82" t="s">
+        <v>132</v>
+      </c>
       <c r="D7" s="50" t="s">
         <v>51</v>
       </c>
@@ -8202,12 +8244,14 @@
         <v>97</v>
       </c>
       <c r="M7" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N7" s="54">
         <v>100000</v>
       </c>
-      <c r="O7" s="52"/>
+      <c r="O7" s="52" t="s">
+        <v>123</v>
+      </c>
       <c r="P7" s="52" t="s">
         <v>78</v>
       </c>
@@ -8215,14 +8259,14 @@
         <v>99</v>
       </c>
       <c r="R7" s="50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>108</v>
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8251,7 +8295,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8280,7 +8324,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8309,7 +8353,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8338,7 +8382,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8367,7 +8411,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="104" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8398,7 +8442,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8427,7 +8471,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8456,7 +8500,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8485,7 +8529,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9719,10 +9763,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="107" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="107">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9751,8 +9795,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="108"/>
-      <c r="W57" s="108"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9778,8 +9822,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11066,6 +11110,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -11076,16 +11130,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11128,43 +11172,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="96"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="96"/>
-      <c r="T1" s="96"/>
-      <c r="U1" s="96"/>
-      <c r="V1" s="96"/>
-      <c r="W1" s="96"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
+      <c r="N1" s="106"/>
+      <c r="O1" s="106"/>
+      <c r="P1" s="106"/>
+      <c r="Q1" s="106"/>
+      <c r="R1" s="106"/>
+      <c r="S1" s="106"/>
+      <c r="T1" s="106"/>
+      <c r="U1" s="106"/>
+      <c r="V1" s="106"/>
+      <c r="W1" s="106"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="98"/>
-      <c r="C2" s="98"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="109"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11209,58 +11253,58 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101" t="s">
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="101"/>
-      <c r="M4" s="102" t="s">
+      <c r="L4" s="103"/>
+      <c r="M4" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="102" t="s">
+      <c r="N4" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="101" t="s">
+      <c r="O4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="110" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="101" t="s">
+      <c r="Q4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="101" t="s">
+      <c r="R4" s="103" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="104" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="101" t="s">
+      <c r="V4" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="101" t="s">
+      <c r="W4" s="103" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
+      <c r="A5" s="110"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11285,24 +11329,24 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="101"/>
+      <c r="J5" s="103"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="103"/>
-      <c r="N5" s="103"/>
-      <c r="O5" s="101"/>
-      <c r="P5" s="110"/>
-      <c r="Q5" s="101"/>
-      <c r="R5" s="101"/>
-      <c r="S5" s="112"/>
+      <c r="M5" s="112"/>
+      <c r="N5" s="112"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="103"/>
+      <c r="R5" s="103"/>
+      <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="101"/>
-      <c r="W5" s="101"/>
+      <c r="V5" s="103"/>
+      <c r="W5" s="103"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -11328,7 +11372,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="104" t="s">
+      <c r="V6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11359,7 +11403,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="105"/>
+      <c r="V7" s="97"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11388,7 +11432,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="105"/>
+      <c r="V8" s="97"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11417,7 +11461,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="105"/>
+      <c r="V9" s="97"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11446,7 +11490,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="105"/>
+      <c r="V10" s="97"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11475,7 +11519,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="105"/>
+      <c r="V11" s="97"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11504,7 +11548,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="104" t="s">
+      <c r="V12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11535,7 +11579,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="105"/>
+      <c r="V13" s="97"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11564,7 +11608,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="105"/>
+      <c r="V14" s="97"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11593,7 +11637,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="105"/>
+      <c r="V15" s="97"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11622,7 +11666,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="106"/>
+      <c r="V16" s="98"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12856,10 +12900,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="107" t="s">
+      <c r="V56" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="107">
+      <c r="W56" s="99">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12888,8 +12932,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="108"/>
-      <c r="W57" s="108"/>
+      <c r="V57" s="100"/>
+      <c r="W57" s="100"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12915,8 +12959,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="109"/>
-      <c r="W58" s="109"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -14203,6 +14247,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -14213,16 +14267,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_TechGlobal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG007X" sheetId="27" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="133">
   <si>
     <t>STT</t>
   </si>
@@ -530,7 +530,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,12 +552,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -684,7 +678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -950,25 +944,28 @@
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,35 +989,20 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1329,8 +1311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1361,43 +1343,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -1442,42 +1424,42 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
       <c r="S4" s="104" t="s">
@@ -1485,15 +1467,15 @@
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1518,24 +1500,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1591,7 +1573,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="63"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -1650,7 +1632,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="63"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1709,7 +1691,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="63"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1766,7 +1748,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="63"/>
       <c r="U9" s="63"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -1823,7 +1805,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="63"/>
       <c r="U10" s="63"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1880,7 +1862,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="63"/>
       <c r="U11" s="63"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1937,7 +1919,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="63"/>
       <c r="U12" s="63"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1968,7 +1950,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="63"/>
       <c r="U13" s="63"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1997,7 +1979,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="63"/>
       <c r="U14" s="63"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -2026,7 +2008,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="63"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2055,7 +2037,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="63"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3289,10 +3271,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -3321,8 +3303,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -3348,8 +3330,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -4636,6 +4618,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4646,16 +4638,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4666,8 +4648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="F1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4698,43 +4680,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -4779,42 +4761,42 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
       <c r="S4" s="104" t="s">
@@ -4822,15 +4804,15 @@
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -4855,24 +4837,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -4928,65 +4910,65 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="89">
+    <row r="7" spans="1:23" s="108" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="82" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="D7" s="91" t="s">
+      <c r="D7" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="65">
         <v>861693037597069</v>
       </c>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="93" t="s">
+      <c r="H7" s="52"/>
+      <c r="I7" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="J7" s="91" t="s">
+      <c r="J7" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="89" t="s">
+      <c r="K7" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91" t="s">
+      <c r="L7" s="52"/>
+      <c r="M7" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="94"/>
-      <c r="O7" s="91" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="91" t="s">
+      <c r="P7" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q7" s="95" t="s">
+      <c r="Q7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="91" t="s">
+      <c r="R7" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="S7" s="89"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="97"/>
-      <c r="W7" s="3" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -5044,7 +5026,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5099,7 +5081,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -5154,7 +5136,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5183,7 +5165,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5212,7 +5194,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -5243,7 +5225,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5272,7 +5254,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5301,7 +5283,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5330,7 +5312,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6564,10 +6546,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6596,8 +6578,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -6623,8 +6605,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -7911,6 +7893,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7921,16 +7913,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7941,8 +7923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="F5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61:I64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7973,43 +7955,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="68"/>
@@ -8054,42 +8036,42 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
       <c r="S4" s="104" t="s">
@@ -8097,15 +8079,15 @@
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -8130,24 +8112,24 @@
       <c r="I5" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -8203,7 +8185,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="80"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -8266,7 +8248,7 @@
       </c>
       <c r="T7" s="27"/>
       <c r="U7" s="80"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8295,7 +8277,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="80"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8324,7 +8306,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="80"/>
       <c r="U9" s="80"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -8353,7 +8335,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="80"/>
       <c r="U10" s="80"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8382,7 +8364,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="80"/>
       <c r="U11" s="80"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8411,7 +8393,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="80"/>
       <c r="U12" s="80"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -8442,7 +8424,7 @@
       <c r="S13" s="59"/>
       <c r="T13" s="80"/>
       <c r="U13" s="80"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8471,7 +8453,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="80"/>
       <c r="U14" s="80"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8500,7 +8482,7 @@
       <c r="S15" s="3"/>
       <c r="T15" s="80"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8529,7 +8511,7 @@
       <c r="S16" s="3"/>
       <c r="T16" s="80"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -9763,10 +9745,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -9795,8 +9777,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -9822,8 +9804,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -11110,6 +11092,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -11120,16 +11112,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11140,8 +11122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:W1"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11172,43 +11154,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="106"/>
-      <c r="S1" s="106"/>
-      <c r="T1" s="106"/>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="5"/>
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
@@ -11253,42 +11235,42 @@
       <c r="W3" s="28"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="110" t="s">
+      <c r="A4" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="103"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="103" t="s">
+      <c r="K4" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="103"/>
-      <c r="M4" s="111" t="s">
+      <c r="L4" s="94"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="103" t="s">
+      <c r="O4" s="94" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="102" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="103" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="103" t="s">
+      <c r="R4" s="94" t="s">
         <v>61</v>
       </c>
       <c r="S4" s="104" t="s">
@@ -11296,15 +11278,15 @@
       </c>
       <c r="T4" s="27"/>
       <c r="U4" s="27"/>
-      <c r="V4" s="103" t="s">
+      <c r="V4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="103" t="s">
+      <c r="W4" s="94" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -11329,50 +11311,80 @@
       <c r="I5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="103"/>
+      <c r="J5" s="94"/>
       <c r="K5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="112"/>
-      <c r="N5" s="112"/>
-      <c r="O5" s="103"/>
-      <c r="P5" s="102"/>
-      <c r="Q5" s="103"/>
-      <c r="R5" s="103"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
       <c r="S5" s="105"/>
       <c r="T5" s="27"/>
       <c r="U5" s="27"/>
-      <c r="V5" s="103"/>
-      <c r="W5" s="103"/>
+      <c r="V5" s="94"/>
+      <c r="W5" s="94"/>
     </row>
     <row r="6" spans="1:23" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
+      <c r="B6" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="51">
+        <v>868183037781023</v>
+      </c>
       <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
+      <c r="G6" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="52" t="s">
+        <v>98</v>
+      </c>
       <c r="N6" s="54"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="50"/>
+      <c r="O6" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P6" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R6" s="50" t="s">
+        <v>100</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="27"/>
       <c r="U6" s="29"/>
-      <c r="V6" s="96" t="s">
+      <c r="V6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="3" t="s">
@@ -11383,27 +11395,55 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
+      <c r="B7" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="51">
+        <v>868183034547138</v>
+      </c>
       <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="G7" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="50"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="55"/>
+      <c r="I7" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="55"/>
+      <c r="M7" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="54">
+        <v>35000</v>
+      </c>
+      <c r="O7" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="27"/>
       <c r="U7" s="29"/>
-      <c r="V7" s="97"/>
+      <c r="V7" s="98"/>
       <c r="W7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11412,27 +11452,57 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
+      <c r="B8" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="51">
+        <v>868183038042185</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="55"/>
+      <c r="G8" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="N8" s="54"/>
+      <c r="O8" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R8" s="50" t="s">
+        <v>102</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="27"/>
       <c r="U8" s="29"/>
-      <c r="V8" s="97"/>
+      <c r="V8" s="98"/>
       <c r="W8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11441,27 +11511,55 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
+      <c r="B9" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="51">
+        <v>860157040202795</v>
+      </c>
       <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
+      <c r="G9" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="50"/>
+      <c r="I9" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9" s="52" t="s">
+        <v>103</v>
+      </c>
       <c r="N9" s="54"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="50"/>
+      <c r="O9" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="50" t="s">
+        <v>104</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="29"/>
       <c r="U9" s="29"/>
-      <c r="V9" s="97"/>
+      <c r="V9" s="98"/>
       <c r="W9" s="3" t="s">
         <v>59</v>
       </c>
@@ -11470,27 +11568,55 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="B10" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="51">
+        <v>868183037830457</v>
+      </c>
       <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="55"/>
+      <c r="G10" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="66"/>
+      <c r="I10" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M10" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="54"/>
+      <c r="O10" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="29"/>
       <c r="U10" s="29"/>
-      <c r="V10" s="97"/>
+      <c r="V10" s="98"/>
       <c r="W10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11499,27 +11625,55 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
+      <c r="B11" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="51">
+        <v>868183034662671</v>
+      </c>
       <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
+      <c r="G11" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="66"/>
+      <c r="I11" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>80</v>
+      </c>
       <c r="N11" s="54"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="50"/>
+      <c r="O11" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P11" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R11" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="29"/>
       <c r="U11" s="29"/>
-      <c r="V11" s="97"/>
+      <c r="V11" s="98"/>
       <c r="W11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11528,27 +11682,55 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="51">
+        <v>868183038072711</v>
+      </c>
       <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
+      <c r="G12" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="66"/>
+      <c r="I12" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M12" s="52" t="s">
+        <v>92</v>
+      </c>
       <c r="N12" s="54"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="50"/>
+      <c r="O12" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P12" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R12" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="29"/>
       <c r="U12" s="29"/>
-      <c r="V12" s="96" t="s">
+      <c r="V12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -11559,27 +11741,57 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
+      <c r="B13" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="51">
+        <v>868004026316748</v>
+      </c>
       <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="58"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="50"/>
+      <c r="G13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="66"/>
+      <c r="I13" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="J13" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N13" s="54">
+        <v>20000</v>
+      </c>
+      <c r="O13" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R13" s="50" t="s">
+        <v>125</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="29"/>
       <c r="U13" s="29"/>
-      <c r="V13" s="97"/>
+      <c r="V13" s="98"/>
       <c r="W13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11588,27 +11800,53 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="65">
+        <v>861693037597069</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="52"/>
+      <c r="I14" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="3"/>
+      <c r="M14" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="N14" s="54"/>
+      <c r="O14" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="P14" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="S14" s="1"/>
       <c r="T14" s="29"/>
       <c r="U14" s="29"/>
-      <c r="V14" s="97"/>
+      <c r="V14" s="98"/>
       <c r="W14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11617,27 +11855,57 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
+      <c r="B15" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="51">
+        <v>867330023798922</v>
+      </c>
       <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="55"/>
+      <c r="G15" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="I15" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="52" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="55" t="s">
+        <v>109</v>
+      </c>
       <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="50"/>
+      <c r="M15" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="N15" s="54">
+        <v>360000</v>
+      </c>
+      <c r="O15" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="50" t="s">
+        <v>35</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="29"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="97"/>
+      <c r="V15" s="98"/>
       <c r="W15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11646,27 +11914,53 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="51">
+        <v>868004027153447</v>
+      </c>
       <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
+      <c r="G16" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H16" s="50"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="55"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="54">
+        <v>120000</v>
+      </c>
+      <c r="O16" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P16" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R16" s="50" t="s">
+        <v>128</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="29"/>
       <c r="U16" s="15"/>
-      <c r="V16" s="98"/>
+      <c r="V16" s="99"/>
       <c r="W16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11675,23 +11969,49 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
+      <c r="B17" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="56">
+        <v>867330023825626</v>
+      </c>
       <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="55"/>
+      <c r="G17" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="66"/>
+      <c r="I17" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="J17" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="55" t="s">
+        <v>109</v>
+      </c>
       <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="M17" s="52" t="s">
+        <v>116</v>
+      </c>
       <c r="N17" s="54"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="55"/>
+      <c r="O17" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P17" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="50" t="s">
+        <v>31</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="29"/>
       <c r="U17" s="15"/>
@@ -11702,23 +12022,53 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
+      <c r="B18" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="51">
+        <v>864161023179695</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="G18" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="66"/>
+      <c r="I18" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="L18" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>129</v>
+      </c>
       <c r="N18" s="54"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="55"/>
+      <c r="O18" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="50" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="29"/>
       <c r="U18" s="15"/>
@@ -11729,24 +12079,56 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="65"/>
+      <c r="B19" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
+      <c r="G19" s="50" t="s">
+        <v>66</v>
+      </c>
       <c r="H19" s="50"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="3"/>
+      <c r="I19" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="J19" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L19" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="N19" s="54">
+        <v>100000</v>
+      </c>
+      <c r="O19" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R19" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="T19" s="29"/>
       <c r="U19" s="15"/>
       <c r="V19" s="4" t="s">
@@ -11785,7 +12167,7 @@
       </c>
       <c r="W20" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11817,7 +12199,7 @@
       </c>
       <c r="W21" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11849,7 +12231,7 @@
       </c>
       <c r="W22" s="10">
         <f>COUNTIF($Q$6:$Q$105,"PC+PM")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11966,7 +12348,7 @@
       </c>
       <c r="W26" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11998,7 +12380,7 @@
       </c>
       <c r="W27" s="10">
         <f>COUNTIF($R$6:$R$51,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12030,7 +12412,7 @@
       </c>
       <c r="W28" s="10">
         <f>COUNTIF($R$6:$R$51,"*GPS*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12094,7 +12476,7 @@
       </c>
       <c r="W30" s="10">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12126,7 +12508,7 @@
       </c>
       <c r="W31" s="10">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12158,7 +12540,7 @@
       </c>
       <c r="W32" s="10">
         <f>COUNTIF($R$6:$R$51,"*MCH*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12254,7 +12636,7 @@
       </c>
       <c r="W35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12318,7 +12700,7 @@
       </c>
       <c r="W37" s="10">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12436,7 +12818,7 @@
       </c>
       <c r="W41" s="10">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12617,7 +12999,7 @@
       </c>
       <c r="W47" s="10">
         <f>COUNTIF($D$6:$D$105,"TG007X")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12745,7 +13127,7 @@
       </c>
       <c r="W51" s="10">
         <f>COUNTIF($D$6:$D$105,"TG007")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12777,7 +13159,7 @@
       </c>
       <c r="W52" s="10">
         <f>COUNTIF($D$6:$D$105,"TG102")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12900,10 +13282,10 @@
       <c r="S56" s="35"/>
       <c r="T56" s="45"/>
       <c r="U56" s="47"/>
-      <c r="V56" s="99" t="s">
+      <c r="V56" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="99">
+      <c r="W56" s="100">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12932,8 +13314,8 @@
       <c r="S57" s="35"/>
       <c r="T57" s="45"/>
       <c r="U57" s="47"/>
-      <c r="V57" s="100"/>
-      <c r="W57" s="100"/>
+      <c r="V57" s="101"/>
+      <c r="W57" s="101"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
@@ -12959,8 +13341,8 @@
       <c r="S58" s="35"/>
       <c r="T58" s="45"/>
       <c r="U58" s="47"/>
-      <c r="V58" s="101"/>
-      <c r="W58" s="101"/>
+      <c r="V58" s="102"/>
+      <c r="W58" s="102"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
@@ -13077,7 +13459,7 @@
       </c>
       <c r="W62" s="10">
         <f>COUNTIF($O$6:$O$105,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14247,6 +14629,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -14257,16 +14649,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
